--- a/data/trans_camb/PCS12_SP_R3-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R3-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,78</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,16</t>
+          <t>9,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,07</t>
+          <t>7,53</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 11,19</t>
+          <t>-2,21; 5,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 21,05</t>
+          <t>-2,36; 5,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,49; 33,08</t>
+          <t>5,04; 13,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 16,19</t>
+          <t>-1,24; 8,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 10,38</t>
+          <t>-2,94; 7,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 14,3</t>
+          <t>0,75; 8,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 11,69</t>
+          <t>-0,24; 6,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 11,95</t>
+          <t>-0,69; 5,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,27; 20,1</t>
+          <t>4,06; 10,42</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>52,98%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>109,24%</t>
+          <t>56,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,54%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>48,6%</t>
+          <t>33,86%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-38,46; 85,53</t>
+          <t>-11,38; 36,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 161,34</t>
+          <t>-12,82; 36,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,41; 260,51</t>
+          <t>26,63; 90,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 60,99</t>
+          <t>-3,88; 34,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,6; 39,51</t>
+          <t>-9,76; 30,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 56,63</t>
+          <t>2,31; 35,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,74; 56,0</t>
+          <t>-1,01; 29,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,24; 57,14</t>
+          <t>-3,24; 27,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,58; 98,51</t>
+          <t>16,94; 49,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,27</t>
+          <t>20,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,89</t>
+          <t>12,06</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 6,43</t>
+          <t>1,25; 7,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 4,64</t>
+          <t>-0,86; 5,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 12,59</t>
+          <t>3,2; 52,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 8,91</t>
+          <t>-1,88; 6,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 9,72</t>
+          <t>-4,96; 3,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 9,74</t>
+          <t>-0,9; 6,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 6,09</t>
+          <t>0,37; 6,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 5,66</t>
+          <t>-2,0; 3,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 10,29</t>
+          <t>2,29; 34,9</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>48,49%</t>
+          <t>147,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>-3,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,73%</t>
+          <t>58,01%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 42,48</t>
+          <t>7,29; 62,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 30,64</t>
+          <t>-5,64; 45,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,5; 82,42</t>
+          <t>21,93; 414,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 37,98</t>
+          <t>-6,31; 26,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 42,51</t>
+          <t>-16,85; 13,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 41,57</t>
+          <t>-3,1; 26,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 30,6</t>
+          <t>2,0; 31,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 28,32</t>
+          <t>-9,01; 18,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,66; 51,45</t>
+          <t>10,99; 172,92</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,54</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-5,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>-8,5</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>-2,54</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 7,95</t>
+          <t>-7,05; 0,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 5,61</t>
+          <t>-6,4; 1,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,51; 24,36</t>
+          <t>-0,91; 7,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 6,46</t>
+          <t>-7,57; 1,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 3,3</t>
+          <t>-9,96; -0,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 6,38</t>
+          <t>-20,65; -0,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 6,12</t>
+          <t>-6,14; 0,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 3,56</t>
+          <t>-7,24; -0,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,05; 11,83</t>
+          <t>-9,48; 1,82</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>-18,19%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>-15,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>60,03%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>-9,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,3%</t>
+          <t>-19,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>-29,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>-12,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>-17,35%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>-11,05%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,29; 62,78</t>
+          <t>-37,47; 4,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 45,6</t>
+          <t>-32,92; 8,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,73; 166,34</t>
+          <t>-4,36; 51,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 26,13</t>
+          <t>-24,37; 6,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 13,34</t>
+          <t>-32,07; -1,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 25,14</t>
+          <t>-63,57; -3,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 31,31</t>
+          <t>-25,2; 1,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 18,31</t>
+          <t>-29,69; -4,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,21; 57,95</t>
+          <t>-39,38; 8,12</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,43</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>5,57</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 0,71</t>
+          <t>0,31; 7,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 1,26</t>
+          <t>-1,86; 4,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 8,16</t>
+          <t>2,61; 9,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 1,65</t>
+          <t>-0,56; 7,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -0,5</t>
+          <t>-4,65; 3,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 0,04</t>
+          <t>-1,29; 8,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 0,35</t>
+          <t>0,99; 6,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,24; -0,97</t>
+          <t>-2,4; 2,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 2,89</t>
+          <t>2,23; 8,36</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-18,19%</t>
+          <t>25,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-15,2%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,25%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-19,01%</t>
+          <t>-2,37%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-18,91%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-12,36%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-17,35%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-2,81%</t>
+          <t>26,6%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,47; 4,38</t>
+          <t>1,36; 52,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 8,96</t>
+          <t>-11,62; 32,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 53,6</t>
+          <t>14,87; 67,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,37; 6,33</t>
+          <t>-1,86; 31,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,07; -1,94</t>
+          <t>-16,56; 14,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,06; -0,13</t>
+          <t>-4,51; 37,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 1,55</t>
+          <t>4,24; 31,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,69; -4,7</t>
+          <t>-10,67; 14,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 13,14</t>
+          <t>10,47; 43,1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>11,28</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>6,04</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 7,18</t>
+          <t>0,1; 3,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 4,6</t>
+          <t>-0,95; 2,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,94; 9,78</t>
+          <t>5,14; 27,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 7,44</t>
+          <t>-0,31; 4,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 3,53</t>
+          <t>-3,24; 1,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,76; 10,47</t>
+          <t>-4,8; 3,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,99; 6,21</t>
+          <t>0,59; 3,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,88</t>
+          <t>-1,48; 1,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,11; 9,45</t>
+          <t>2,64; 14,62</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>25,87%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>43,19%</t>
+          <t>71,42%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-2,37%</t>
+          <t>-3,87%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>27,98%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1,36; 52,75</t>
+          <t>0,95; 26,72</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 32,88</t>
+          <t>-5,64; 17,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,17; 69,3</t>
+          <t>31,6; 174,7</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 31,12</t>
+          <t>-1,08; 15,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 14,87</t>
+          <t>-11,51; 4,87</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>9,57; 42,74</t>
+          <t>-17,15; 14,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,24; 31,36</t>
+          <t>2,54; 16,61</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 14,68</t>
+          <t>-6,71; 6,8</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>18,31; 48,5</t>
+          <t>12,06; 68,22</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>7,26</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,95</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-1,05</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>2,42</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>4,94</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 3,93</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,95; 2,69</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>5,01; 11,15</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 4,12</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-3,24; 1,29</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 4,69</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 3,48</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 1,41</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>3,15; 6,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>13,11%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>5,6%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>45,97%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>7,16%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-3,87%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>8,89%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>9,39%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-0,32%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>22,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 26,72</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-5,64; 17,92</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>29,71; 71,86</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 15,62</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-11,51; 4,87</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 17,82</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 16,61</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-6,71; 6,8</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>14,3; 32,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/PCS12_SP_R3-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R3-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 5,78</t>
+          <t>-2,07; 5,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 5,82</t>
+          <t>-1,88; 5,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 13,98</t>
+          <t>5,46; 14,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 8,69</t>
+          <t>-0,86; 8,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 7,6</t>
+          <t>-2,0; 7,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 8,85</t>
+          <t>0,89; 9,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 6,17</t>
+          <t>-0,34; 6,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 5,72</t>
+          <t>-0,84; 5,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,06; 10,42</t>
+          <t>4,24; 10,68</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 36,91</t>
+          <t>-11,29; 38,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 36,25</t>
+          <t>-10,49; 38,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,63; 90,18</t>
+          <t>28,65; 94,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 34,71</t>
+          <t>-3,59; 34,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 30,14</t>
+          <t>-6,66; 30,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 35,75</t>
+          <t>3,12; 37,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 29,48</t>
+          <t>-1,71; 29,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 27,76</t>
+          <t>-3,56; 26,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,94; 49,65</t>
+          <t>18,17; 52,52</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 7,95</t>
+          <t>1,1; 7,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 5,61</t>
+          <t>-1,07; 5,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 52,77</t>
+          <t>3,06; 50,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 6,46</t>
+          <t>-1,62; 6,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 3,3</t>
+          <t>-4,95; 3,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 6,58</t>
+          <t>-0,87; 6,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 6,12</t>
+          <t>0,56; 6,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 3,56</t>
+          <t>-1,91; 3,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 34,9</t>
+          <t>2,77; 33,07</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,29; 62,78</t>
+          <t>7,31; 62,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 45,6</t>
+          <t>-6,74; 41,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,93; 414,08</t>
+          <t>21,39; 381,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 26,13</t>
+          <t>-5,88; 25,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 13,34</t>
+          <t>-17,32; 12,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 26,16</t>
+          <t>-2,96; 25,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 31,31</t>
+          <t>2,61; 31,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 18,31</t>
+          <t>-8,85; 16,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,99; 172,92</t>
+          <t>13,14; 166,81</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 0,71</t>
+          <t>-7,15; 0,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 1,26</t>
+          <t>-7,01; 1,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 7,65</t>
+          <t>-1,12; 7,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 1,65</t>
+          <t>-7,62; 1,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -0,5</t>
+          <t>-10,15; -1,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,65; -0,85</t>
+          <t>-19,0; -1,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 0,35</t>
+          <t>-6,15; -0,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,24; -0,97</t>
+          <t>-6,91; -0,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 1,82</t>
+          <t>-9,64; 1,68</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,47; 4,38</t>
+          <t>-37,12; 5,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 8,96</t>
+          <t>-35,15; 9,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 51,09</t>
+          <t>-5,58; 50,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,37; 6,33</t>
+          <t>-24,31; 5,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,07; -1,94</t>
+          <t>-33,26; -3,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-63,57; -3,3</t>
+          <t>-61,7; -4,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 1,55</t>
+          <t>-25,45; -0,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,69; -4,7</t>
+          <t>-28,03; -4,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-39,38; 8,12</t>
+          <t>-41,38; 7,26</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 7,18</t>
+          <t>0,87; 7,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 4,6</t>
+          <t>-1,72; 4,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,61; 9,49</t>
+          <t>3,04; 9,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 7,44</t>
+          <t>-0,37; 7,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 3,53</t>
+          <t>-4,65; 3,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 8,98</t>
+          <t>-1,86; 8,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 6,21</t>
+          <t>1,22; 6,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,88</t>
+          <t>-1,99; 3,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 8,36</t>
+          <t>2,09; 8,26</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,36; 52,75</t>
+          <t>5,0; 52,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 32,88</t>
+          <t>-10,71; 34,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,87; 67,31</t>
+          <t>17,74; 71,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 31,12</t>
+          <t>-1,27; 32,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 14,87</t>
+          <t>-16,56; 12,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 37,04</t>
+          <t>-6,48; 35,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,24; 31,36</t>
+          <t>5,57; 32,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 14,68</t>
+          <t>-9,02; 16,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10,47; 43,1</t>
+          <t>9,52; 41,29</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,1; 3,93</t>
+          <t>0,34; 3,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,69</t>
+          <t>-0,95; 2,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,14; 27,26</t>
+          <t>5,13; 30,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 4,12</t>
+          <t>-0,29; 4,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,29</t>
+          <t>-3,24; 0,98</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 3,81</t>
+          <t>-3,58; 3,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,48</t>
+          <t>0,57; 3,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,41</t>
+          <t>-1,58; 1,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,64; 14,62</t>
+          <t>2,55; 13,98</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,95; 26,72</t>
+          <t>1,82; 26,22</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 17,92</t>
+          <t>-5,87; 18,29</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>31,6; 174,7</t>
+          <t>31,91; 197,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 15,62</t>
+          <t>-1,05; 15,83</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 4,87</t>
+          <t>-11,55; 3,73</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 14,44</t>
+          <t>-12,85; 14,6</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2,54; 16,61</t>
+          <t>2,52; 16,51</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 6,8</t>
+          <t>-7,08; 6,87</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>12,06; 68,22</t>
+          <t>11,77; 66,1</t>
         </is>
       </c>
     </row>
